--- a/inputs/data/TRFMO_PARAMETERS.xlsx
+++ b/inputs/data/TRFMO_PARAMETERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\TunaMorphometrics\inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5758B-7935-4225-9F34-FD8648283D7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C42AD-3149-4672-9A80-C5C966D316F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57489DEB-2B7E-4C8C-87D4-4A3F6BB1B06C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{57489DEB-2B7E-4C8C-87D4-4A3F6BB1B06C}"/>
   </bookViews>
   <sheets>
     <sheet name="OFFICIAL" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800E8FDA-1990-4B28-82A7-123316560556}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC07DC-CB99-4655-B598-764EF1A3C9FD}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inputs/data/TRFMO_PARAMETERS.xlsx
+++ b/inputs/data/TRFMO_PARAMETERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\TunaMorphometrics\inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C42AD-3149-4672-9A80-C5C966D316F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6203B1-A998-4800-85A6-315DE58164AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{57489DEB-2B7E-4C8C-87D4-4A3F6BB1B06C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="59">
   <si>
     <t>Species</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>John1995</t>
+  </si>
+  <si>
+    <t>Bigeye tuna</t>
+  </si>
+  <si>
+    <t>Skipjack tuna</t>
+  </si>
+  <si>
+    <t>Yellowfin tuna</t>
+  </si>
+  <si>
+    <t>SpeciesScientific</t>
   </si>
 </sst>
 </file>
@@ -591,297 +603,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800E8FDA-1990-4B28-82A7-123316560556}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3186</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>37</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>210</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2.3960000000000001E-5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.9773999999999998</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14140</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>32</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>78</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>7.4800000000000004E-6</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.2526000000000002</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6487</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>183</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>2.1529999999999999E-5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.976</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>6.4800000000000003E-5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2.7810000000000001</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2.0100000000000001E-5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.9860000000000002</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1.1437000000000001E-5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3.1482999999999999</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>3.6609999999999997E-5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.9018199999999998</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1.3869999999999999E-5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.0859999999999999</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>5.5292999999999997E-6</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.3359999999999999</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -890,1049 +933,1152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC07DC-CB99-4655-B598-764EF1A3C9FD}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1501</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>61</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>194</v>
       </c>
-      <c r="H2" s="9">
+      <c r="I2" s="9">
         <v>5.2991900000000003E-5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.8211263999999998</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>253</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>92</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>199</v>
       </c>
-      <c r="H3" s="9">
+      <c r="I3" s="9">
         <v>2.6472E-5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.94</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1772</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>206</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>3.3760000000000002E-5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.8813</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>132</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>41</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>190</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="9">
         <v>1.2493999999999999E-5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.1208200000000001</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>9144</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>190</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="9">
         <v>3.6609999999999997E-5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.9018199999999998</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>1832</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <v>3.3263000000000003E-5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.9809999999999999</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>4121</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>1.3504E-5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3.1055999999999999</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>2538</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <v>1.7265000000000002E-5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3.0474999999999999</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>428</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <v>5.8560000000000002E-5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.7884000000000002</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>1436</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>60</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>202</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <v>1.3200000000000001E-5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.0430000000000001</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>481</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>1.9730800000000001E-5</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.0246689999999998</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>334</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>85</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>170</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.0339</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>2707</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <v>2.1681000000000001E-5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.9967999999999999</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>1052</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <v>2.4700000000000001E-5</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.9260000000000002</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>62</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>48</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>166</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>2.77562E-5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>2.9365199999999998</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>115</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>42</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>79</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <v>7.6475099999999999E-6</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.24281</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="11">
+      <c r="H18" s="6"/>
+      <c r="I18" s="11">
         <v>6.8680000000000001E-6</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>3.2869999999999999</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
       <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>644</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>26</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>76</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="9">
         <v>4.4863999999999999E-6</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.3532999999999999</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
       <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>520</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>40</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>73</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="9">
         <v>4.1150000000000004E-6</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.4089999999999998</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
       <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>2554</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>36</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>64</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>5.6110000000000001E-6</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.3149700000000002</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
       <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>848</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>41</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>62</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="9">
         <v>1.131E-5</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.1579999999999999</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>54</v>
       </c>
-      <c r="H23" s="10">
+      <c r="I23" s="10">
         <v>9.6118981879179556E-6</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3.19</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
       <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>120</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>71</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>6.7757099841592108E-6</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3.29</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
       <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>924</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>39</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>71</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="9">
         <v>4.1898276180082096E-6</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3.403</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
       <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>2029</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>35</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>85</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I26" s="10">
         <v>6.5429999999999999E-6</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3.2930000000000001</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>268</v>
       </c>
-      <c r="H27" s="9">
+      <c r="I27" s="9">
         <v>8.520505994021144E-6</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3.2164000000000001</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>440</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>36</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>67</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>3.8411387935377829E-6</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3.3930099999999999</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
       <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>359</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>47</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>166</v>
       </c>
-      <c r="H29" s="9">
+      <c r="I29" s="9">
         <v>3.1653399999999997E-5</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.8893800000000001</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
       <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>541</v>
       </c>
-      <c r="H30" s="9">
+      <c r="I30" s="9">
         <v>1.8495298014390602E-5</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.02</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
       <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>312</v>
       </c>
-      <c r="H31" s="9">
+      <c r="I31" s="9">
         <f>0.000012</f>
         <v>1.2E-5</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3.0830000000000002</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
       <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>30</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>190</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f>0.008634/1000</f>
         <v>8.633999999999999E-6</v>
       </c>
-      <c r="I32" s="12">
+      <c r="J32" s="12">
         <v>3.12</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
       <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>682</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>32</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>128</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>3.8519999999999997E-5</v>
       </c>
-      <c r="I33" s="12">
+      <c r="J33" s="12">
         <v>2.7433000000000001</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
       <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="13">
+      <c r="F34" s="13">
         <v>422</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>58</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>163</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>3.8062000000000003E-5</v>
       </c>
-      <c r="I34" s="12">
+      <c r="J34" s="12">
         <v>2.8422999999999998</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H35" s="1"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inputs/data/TRFMO_PARAMETERS.xlsx
+++ b/inputs/data/TRFMO_PARAMETERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\TunaMorphometrics\inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6203B1-A998-4800-85A6-315DE58164AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7531B3BF-315F-40C2-93C1-CC41530F9E22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{57489DEB-2B7E-4C8C-87D4-4A3F6BB1B06C}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="OFFICIAL" sheetId="1" r:id="rId1"/>
     <sheet name="OTHERS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OTHERS!$A$1:$K$37</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="59">
   <si>
     <t>Species</t>
   </si>
@@ -127,12 +130,6 @@
     <t>Hennemuth1959</t>
   </si>
   <si>
-    <t>Song2005</t>
-  </si>
-  <si>
-    <t>Zhu2009</t>
-  </si>
-  <si>
     <t>Lenarz1974</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>Wang2002</t>
   </si>
   <si>
-    <t>Zhu2008</t>
-  </si>
-  <si>
     <t>Morita1973</t>
   </si>
   <si>
@@ -212,6 +206,15 @@
   </si>
   <si>
     <t>SpeciesScientific</t>
+  </si>
+  <si>
+    <t>Multilateral catch monitoring Benoa</t>
+  </si>
+  <si>
+    <t>Zhu2010</t>
+  </si>
+  <si>
+    <t>Liming2005</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,21 +276,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -603,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800E8FDA-1990-4B28-82A7-123316560556}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,12 +620,12 @@
     <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -629,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -661,7 +665,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -675,7 +679,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>3186</v>
       </c>
       <c r="G2">
@@ -697,7 +701,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -711,7 +715,7 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>14140</v>
       </c>
       <c r="G3">
@@ -733,7 +737,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -747,7 +751,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>6487</v>
       </c>
       <c r="H4">
@@ -766,7 +770,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -780,6 +784,7 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="I5" s="1">
         <v>6.4800000000000003E-5</v>
       </c>
@@ -787,13 +792,13 @@
         <v>2.7810000000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -807,6 +812,7 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="2"/>
       <c r="I6" s="1">
         <v>2.0100000000000001E-5</v>
       </c>
@@ -814,13 +820,13 @@
         <v>2.9860000000000002</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -834,6 +840,7 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
+      <c r="F7" s="2"/>
       <c r="I7" s="1">
         <v>1.1437000000000001E-5</v>
       </c>
@@ -847,7 +854,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -861,6 +868,7 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="I8" s="1">
         <v>3.6609999999999997E-5</v>
       </c>
@@ -874,7 +882,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -888,6 +896,7 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="I9" s="1">
         <v>1.3869999999999999E-5</v>
       </c>
@@ -901,7 +910,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -915,6 +924,7 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="I10" s="1">
         <v>5.5292999999999997E-6</v>
       </c>
@@ -925,6 +935,76 @@
         <v>29</v>
       </c>
       <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15133</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>177</v>
+      </c>
+      <c r="I11">
+        <v>1.062279E-5</v>
+      </c>
+      <c r="J11">
+        <v>3.126843987</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12047</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>187</v>
+      </c>
+      <c r="I12">
+        <v>1.7990389999999999E-5</v>
+      </c>
+      <c r="J12">
+        <v>3.0415414023</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC07DC-CB99-4655-B598-764EF1A3C9FD}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -991,7 +1071,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1014,7 +1094,7 @@
       <c r="H2">
         <v>194</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>5.2991900000000003E-5</v>
       </c>
       <c r="J2">
@@ -1026,7 +1106,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1049,19 +1129,19 @@
       <c r="H3">
         <v>199</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>2.6472E-5</v>
       </c>
       <c r="J3">
         <v>2.94</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1076,27 +1156,27 @@
         <v>13</v>
       </c>
       <c r="F4" s="2">
-        <v>1772</v>
+        <v>2280</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>206</v>
       </c>
-      <c r="I4" s="9">
-        <v>3.3760000000000002E-5</v>
+      <c r="I4" s="7">
+        <v>1.5760000000000002E-5</v>
       </c>
       <c r="J4">
-        <v>2.8813</v>
+        <v>2.9969000000000001</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1119,19 +1199,19 @@
       <c r="H5">
         <v>190</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>1.2493999999999999E-5</v>
       </c>
       <c r="J5">
         <v>3.1208200000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1154,7 +1234,7 @@
       <c r="H6">
         <v>190</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>3.6609999999999997E-5</v>
       </c>
       <c r="J6">
@@ -1166,7 +1246,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -1183,19 +1263,21 @@
       <c r="F7" s="2">
         <v>1832</v>
       </c>
-      <c r="I7" s="9">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="7">
         <v>3.3263000000000003E-5</v>
       </c>
       <c r="J7">
         <v>2.9809999999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1212,19 +1294,21 @@
       <c r="F8" s="2">
         <v>4121</v>
       </c>
-      <c r="I8" s="9">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7">
         <v>1.3504E-5</v>
       </c>
       <c r="J8">
         <v>3.1055999999999999</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1241,19 +1325,21 @@
       <c r="F9" s="2">
         <v>2538</v>
       </c>
-      <c r="I9" s="9">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="7">
         <v>1.7265000000000002E-5</v>
       </c>
       <c r="J9">
         <v>3.0474999999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1270,19 +1356,25 @@
       <c r="F10" s="2">
         <v>428</v>
       </c>
-      <c r="I10" s="9">
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>180</v>
+      </c>
+      <c r="I10" s="7">
         <v>5.8560000000000002E-5</v>
       </c>
       <c r="J10">
         <v>2.7884000000000002</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1305,19 +1397,19 @@
       <c r="H11">
         <v>202</v>
       </c>
-      <c r="I11" s="9">
-        <v>1.3200000000000001E-5</v>
+      <c r="I11" s="7">
+        <v>1.3159999999999999E-5</v>
       </c>
       <c r="J11">
-        <v>3.0430000000000001</v>
+        <v>3.0427</v>
       </c>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1334,19 +1426,21 @@
       <c r="F12" s="2">
         <v>481</v>
       </c>
-      <c r="I12" s="9">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7">
         <v>1.9730800000000001E-5</v>
       </c>
       <c r="J12">
         <v>3.0246689999999998</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -1369,19 +1463,19 @@
       <c r="H13">
         <v>170</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="J13">
         <v>3.0339</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1396,50 +1490,62 @@
         <v>27</v>
       </c>
       <c r="F14" s="2">
-        <v>2707</v>
-      </c>
-      <c r="I14" s="9">
+        <v>2572</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>175</v>
+      </c>
+      <c r="I14" s="7">
         <v>2.1681000000000001E-5</v>
       </c>
       <c r="J14">
         <v>2.9967999999999999</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="14">
         <v>1052</v>
       </c>
-      <c r="I15" s="9">
-        <v>2.4700000000000001E-5</v>
+      <c r="G15" s="13">
+        <v>54.8</v>
+      </c>
+      <c r="H15" s="13">
+        <v>201</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.4709999999999999E-5</v>
       </c>
       <c r="J15">
-        <v>2.9260000000000002</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
+        <v>2.9258000000000002</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -1462,19 +1568,19 @@
       <c r="H16" s="3">
         <v>166</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>2.77562E-5</v>
       </c>
       <c r="J16" s="3">
         <v>2.9365199999999998</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1497,48 +1603,54 @@
       <c r="H17">
         <v>79</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>7.6475099999999999E-6</v>
       </c>
       <c r="J17">
         <v>3.24281</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="11">
+      <c r="F18" s="4">
+        <v>1030</v>
+      </c>
+      <c r="G18" s="3">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3">
+        <v>70</v>
+      </c>
+      <c r="I18" s="8">
         <v>6.8680000000000001E-6</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>3.2869999999999999</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>40</v>
+      <c r="K18" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1561,19 +1673,19 @@
       <c r="H19">
         <v>76</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>4.4863999999999999E-6</v>
       </c>
       <c r="J19">
         <v>3.3532999999999999</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1596,19 +1708,19 @@
       <c r="H20">
         <v>73</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>4.1150000000000004E-6</v>
       </c>
       <c r="J20">
         <v>3.4089999999999998</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1631,19 +1743,19 @@
       <c r="H21">
         <v>64</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>5.6110000000000001E-6</v>
       </c>
       <c r="J21">
         <v>3.3149700000000002</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1666,19 +1778,19 @@
       <c r="H22">
         <v>62</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>1.131E-5</v>
       </c>
       <c r="J22">
         <v>3.1579999999999999</v>
       </c>
       <c r="K22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
@@ -1701,19 +1813,19 @@
       <c r="H23" s="3">
         <v>54</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>9.6118981879179556E-6</v>
       </c>
       <c r="J23" s="3">
         <v>3.19</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1736,19 +1848,19 @@
       <c r="H24" s="3">
         <v>71</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>6.7757099841592108E-6</v>
       </c>
       <c r="J24" s="3">
         <v>3.29</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1771,19 +1883,19 @@
       <c r="H25">
         <v>71</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>4.1898276180082096E-6</v>
       </c>
       <c r="J25">
         <v>3.403</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1806,19 +1918,19 @@
       <c r="H26">
         <v>85</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <v>6.5429999999999999E-6</v>
       </c>
       <c r="J26">
         <v>3.2930000000000001</v>
       </c>
       <c r="K26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1829,25 +1941,31 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="2">
-        <v>268</v>
-      </c>
-      <c r="I27" s="9">
+        <v>288</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>70</v>
+      </c>
+      <c r="I27" s="7">
         <v>8.520505994021144E-6</v>
       </c>
       <c r="J27">
         <v>3.2164000000000001</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -1856,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
@@ -1882,7 +2000,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1905,19 +2023,19 @@
       <c r="H29">
         <v>166</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>3.1653399999999997E-5</v>
       </c>
       <c r="J29">
         <v>2.8893800000000001</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1934,19 +2052,25 @@
       <c r="F30" s="2">
         <v>541</v>
       </c>
-      <c r="I30" s="9">
+      <c r="G30">
+        <v>48</v>
+      </c>
+      <c r="H30">
+        <v>115</v>
+      </c>
+      <c r="I30" s="7">
         <v>1.8495298014390602E-5</v>
       </c>
       <c r="J30">
         <v>3.02</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1963,7 +2087,9 @@
       <c r="F31" s="2">
         <v>312</v>
       </c>
-      <c r="I31" s="9">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="7">
         <f>0.000012</f>
         <v>1.2E-5</v>
       </c>
@@ -1971,12 +2097,12 @@
         <v>3.0830000000000002</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1990,6 +2116,7 @@
       <c r="E32" t="s">
         <v>27</v>
       </c>
+      <c r="F32" s="12"/>
       <c r="G32">
         <v>30</v>
       </c>
@@ -2000,16 +2127,16 @@
         <f>0.008634/1000</f>
         <v>8.633999999999999E-6</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="9">
         <v>3.12</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -2035,16 +2162,16 @@
       <c r="I33">
         <v>3.8519999999999997E-5</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="9">
         <v>2.7433000000000001</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -2058,7 +2185,7 @@
       <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <v>422</v>
       </c>
       <c r="G34">
@@ -2070,17 +2197,120 @@
       <c r="I34">
         <v>3.8062000000000003E-5</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="9">
         <v>2.8422999999999998</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I35" s="1"/>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2">
+        <v>299</v>
+      </c>
+      <c r="G35">
+        <v>83</v>
+      </c>
+      <c r="H35">
+        <v>176.8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.6589999999999999E-5</v>
+      </c>
+      <c r="J35">
+        <v>2.9691000000000001</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1033</v>
+      </c>
+      <c r="G36">
+        <v>78</v>
+      </c>
+      <c r="H36">
+        <v>171</v>
+      </c>
+      <c r="I36">
+        <v>1.6290000000000002E-5</v>
+      </c>
+      <c r="J36">
+        <v>2.9851000000000001</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="2">
+        <v>520</v>
+      </c>
+      <c r="G37">
+        <v>93</v>
+      </c>
+      <c r="H37">
+        <v>170</v>
+      </c>
+      <c r="I37">
+        <v>4.177E-6</v>
+      </c>
+      <c r="J37">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K37" xr:uid="{9FCFEA37-76F0-4D1C-B4C5-01BB6053DC03}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
